--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1916857783137745</v>
+        <v>-0.2389449703450778</v>
       </c>
       <c r="D2">
-        <v>0.847996070045228</v>
+        <v>0.8125827212666379</v>
       </c>
       <c r="E2">
         <v>3.418600484053054</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.027186303642396</v>
+        <v>-1.171268463748432</v>
       </c>
       <c r="D3">
-        <v>0.3043820503461101</v>
+        <v>0.24963412143771</v>
       </c>
       <c r="E3">
         <v>3.418600484053054</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-3.089027960551229</v>
+        <v>-2.417190452640857</v>
       </c>
       <c r="D4">
-        <v>0.002019062386502624</v>
+        <v>0.02115332047505358</v>
       </c>
       <c r="E4">
         <v>3.418600484053054</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-3.248124569655209</v>
+        <v>-3.225459107604059</v>
       </c>
       <c r="D5">
-        <v>0.001169298226261439</v>
+        <v>0.002779086965311706</v>
       </c>
       <c r="E5">
         <v>3.418600484053054</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.8115657134532215</v>
+        <v>-0.7969171677649532</v>
       </c>
       <c r="D6">
-        <v>0.4170792046617251</v>
+        <v>0.4310292030191214</v>
       </c>
       <c r="E6">
         <v>3.466822318570825</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-2.413181359129666</v>
+        <v>-2.144727763237979</v>
       </c>
       <c r="D7">
-        <v>0.01584940984824601</v>
+        <v>0.03920659739076826</v>
       </c>
       <c r="E7">
         <v>3.466822318570825</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.925114412357674</v>
+        <v>-3.035386725396774</v>
       </c>
       <c r="D8">
-        <v>0.00345865944787116</v>
+        <v>0.004584682738836721</v>
       </c>
       <c r="E8">
         <v>3.466822318570825</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-2.102411575014961</v>
+        <v>-2.088343028949126</v>
       </c>
       <c r="D9">
-        <v>0.03556672702092434</v>
+        <v>0.0443281788042873</v>
       </c>
       <c r="E9">
         <v>3.671114289002086</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.326098922551721</v>
+        <v>-2.638478240736874</v>
       </c>
       <c r="D10">
-        <v>0.02005274517995326</v>
+        <v>0.01247337720791508</v>
       </c>
       <c r="E10">
         <v>3.671114289002086</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.7902537604031689</v>
+        <v>-0.9165226581735678</v>
       </c>
       <c r="D11">
-        <v>0.4294167725740121</v>
+        <v>0.36584833230289</v>
       </c>
       <c r="E11">
         <v>4.347103943069667</v>
